--- a/CR - Cost Report/Preparation oral/previsionnel_reel_tops.xlsx
+++ b/CR - Cost Report/Preparation oral/previsionnel_reel_tops.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Projet_jalons" sheetId="1" r:id="rId1"/>
+    <sheet name="Couts_differences" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>End of…</t>
   </si>
@@ -68,9 +69,6 @@
     <t>16 mar. 2019</t>
   </si>
   <si>
-    <t>3 apr. 2019</t>
-  </si>
-  <si>
     <t>First testing</t>
   </si>
   <si>
@@ -84,13 +82,76 @@
   </si>
   <si>
     <t>Delay (in days)</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>8 mar. 2019</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>5 apr. 2019</t>
+  </si>
+  <si>
+    <t>20 days</t>
+  </si>
+  <si>
+    <t>0 days</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Previsionnal</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Differences (%)</t>
+  </si>
+  <si>
+    <t>Differences (€)</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Powertrain</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Frame &amp; body</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Financial provisions</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +161,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -343,10 +411,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,9 +450,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -698,7 +777,9 @@
       <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -710,7 +791,9 @@
       <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -719,8 +802,12 @@
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -730,33 +817,39 @@
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
@@ -768,4 +861,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19">
+        <v>12630</v>
+      </c>
+      <c r="C2" s="19">
+        <v>19480</v>
+      </c>
+      <c r="D2" s="19">
+        <f>C2-B2</f>
+        <v>6850</v>
+      </c>
+      <c r="E2" s="20">
+        <f>1-B2/C2</f>
+        <v>0.35164271047227924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="19">
+        <v>14680</v>
+      </c>
+      <c r="C3" s="19">
+        <v>14046</v>
+      </c>
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:D6" si="0">C3-B3</f>
+        <v>-634</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E6" si="1">1-B3/C3</f>
+        <v>-4.5137405667093899E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="19">
+        <v>6810</v>
+      </c>
+      <c r="C4" s="19">
+        <v>6893</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="1"/>
+        <v>1.2041201218627617E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="19">
+        <v>880</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2005</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56109725685785539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="19">
+        <v>11400</v>
+      </c>
+      <c r="C6" s="19">
+        <v>9994</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>-1406</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.14068441064638781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="19">
+        <f>SUM(B2:B6)</f>
+        <v>46400</v>
+      </c>
+      <c r="C7" s="19">
+        <f>SUM(C2:C6)</f>
+        <v>52418</v>
+      </c>
+      <c r="D7" s="19">
+        <f>C7-B7</f>
+        <v>6018</v>
+      </c>
+      <c r="E7" s="20">
+        <f>1-B7/C7</f>
+        <v>0.1148078904193216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="19">
+        <v>51800</v>
+      </c>
+      <c r="C8" s="19">
+        <v>52600</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="23">
+        <f>B8-B7</f>
+        <v>5400</v>
+      </c>
+      <c r="C9" s="23">
+        <f>C8-C7</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>